--- a/reference_data/samara/tariffs/regional_config.xlsx
+++ b/reference_data/samara/tariffs/regional_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nastya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD93149-29ED-034D-BF98-043310591980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E168112F-D51D-A842-A78E-075004DC91A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6FFBA0C6-2A81-924A-A95E-4CE25796E2A3}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>nov25</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Ставка за управление</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -461,9 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AAAE5E-28D7-F34A-AB92-D4BF857F6DF3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -472,21 +470,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1132614.3500000001</v>
@@ -500,7 +498,7 @@
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1108154.47</v>

--- a/reference_data/samara/tariffs/regional_config.xlsx
+++ b/reference_data/samara/tariffs/regional_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nastya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E168112F-D51D-A842-A78E-075004DC91A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2524AF-F7FD-1E4B-88A0-8D2012D1BE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6FFBA0C6-2A81-924A-A95E-4CE25796E2A3}"/>
+    <workbookView xWindow="-24460" yWindow="4420" windowWidth="28040" windowHeight="17440" xr2:uid="{6FFBA0C6-2A81-924A-A95E-4CE25796E2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>nov25</t>
   </si>
@@ -54,13 +54,43 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>jan25</t>
+  </si>
+  <si>
+    <t>feb25</t>
+  </si>
+  <si>
+    <t>mar25</t>
+  </si>
+  <si>
+    <t>apr25</t>
+  </si>
+  <si>
+    <t>may25</t>
+  </si>
+  <si>
+    <t>jun25</t>
+  </si>
+  <si>
+    <t>jul25</t>
+  </si>
+  <si>
+    <t>aug25</t>
+  </si>
+  <si>
+    <t>sep25</t>
+  </si>
+  <si>
+    <t>oct25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,13 +104,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,33 +121,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,17 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AAAE5E-28D7-F34A-AB92-D4BF857F6DF3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -484,34 +495,183 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>996240.32</v>
+      </c>
+      <c r="C2" s="1">
+        <v>376.82</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2114856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>890205.59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>505.93</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2114856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>910973.82</v>
+      </c>
+      <c r="C4">
+        <v>554.42999999999995</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2114856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>935486.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>946.24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2114856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>940898.39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1114.1099999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2114856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>911165.81</v>
+      </c>
+      <c r="C7" s="1">
+        <v>937.85</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2114856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>914121.36</v>
+      </c>
+      <c r="C8">
+        <v>814.39</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2487916.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>976007.07</v>
+      </c>
+      <c r="C9">
+        <v>847.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2487916.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>984294.02</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1002.42</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2487916.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1064340.31</v>
+      </c>
+      <c r="C11">
+        <v>763.79</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2487916.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B12" s="1">
         <v>1132614.3500000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C12" s="1">
         <v>1317.3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D12" s="1">
         <v>2487916.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B13" s="3">
         <v>1108154.47</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C13" s="1">
         <v>992.46</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D13" s="1">
         <v>2487916.6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
